--- a/reading/Column_details.xlsx
+++ b/reading/Column_details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Web Development\Random Projects\DSP_projects\Column_chooser\reading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0660D5-2232-4A9F-BD95-8DFC5266CA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348A3694-357E-4E8D-83D6-AEB16B231A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BA512A1E-614B-4562-9E4A-91F72A194DB8}"/>
+    <workbookView xWindow="684" yWindow="1164" windowWidth="21168" windowHeight="5688" xr2:uid="{BA512A1E-614B-4562-9E4A-91F72A194DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Col info" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t>Col name</t>
   </si>
@@ -58,18 +58,12 @@
     <t>BPG 140/950</t>
   </si>
   <si>
-    <t>GE RK 16/26</t>
-  </si>
-  <si>
     <t>GE XK 16/70</t>
   </si>
   <si>
     <t>GE XK 26/40</t>
   </si>
   <si>
-    <t>GE XK 26/60</t>
-  </si>
-  <si>
     <t>GE XK 26/70</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
     <t>HiScale 50/40</t>
   </si>
   <si>
-    <t>Millipore Vantage L</t>
-  </si>
-  <si>
     <t>Omnifit (don't know what size)</t>
   </si>
   <si>
@@ -140,13 +131,34 @@
   </si>
   <si>
     <t>GE XK 16/71</t>
+  </si>
+  <si>
+    <t>GE RK 16/26 (packing resevoir)</t>
+  </si>
+  <si>
+    <t>GE XK 26/60 (check this can't find)</t>
+  </si>
+  <si>
+    <t>Use HiScale Stock</t>
+  </si>
+  <si>
+    <t>Radius (cm)</t>
+  </si>
+  <si>
+    <t>Use axichrom stock</t>
+  </si>
+  <si>
+    <t>bpg stock</t>
+  </si>
+  <si>
+    <t>Millipore Vantage L (need to know size)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,13 +172,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -181,8 +207,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,18 +528,19 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -519,304 +548,893 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
       <c r="G1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B2" s="2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2">
+        <v>790</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2360</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B3" s="2">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2360</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3900</v>
+      </c>
+      <c r="E3" s="2">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B4" s="2">
+        <v>140</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1540</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4620</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B5" s="2">
+        <v>200</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3140</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9420</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B6" s="2">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2">
+        <v>390</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1150</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>140</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7080</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8400</v>
+      </c>
+      <c r="E7" s="2">
+        <v>46</v>
+      </c>
+      <c r="F7" s="2">
+        <v>55</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2">
+        <v>136</v>
+      </c>
+      <c r="D9" s="2">
+        <v>191</v>
+      </c>
+      <c r="E9" s="2">
+        <v>68</v>
+      </c>
+      <c r="F9" s="2">
+        <v>95</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9">
+      <c r="B10" s="2">
         <v>16</v>
       </c>
-      <c r="C9">
-        <v>564.79999999999995</v>
-      </c>
-      <c r="D9">
-        <v>764</v>
-      </c>
-      <c r="E9">
-        <v>68</v>
-      </c>
-      <c r="F9">
-        <v>95</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="C10" s="2">
+        <v>76</v>
+      </c>
+      <c r="D10" s="2">
+        <v>147</v>
+      </c>
+      <c r="E10" s="2">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2">
+        <v>65</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2">
+        <v>185</v>
+      </c>
+      <c r="E11" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>35</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>305.60000000000002</v>
-      </c>
-      <c r="D10">
-        <v>590.1</v>
-      </c>
-      <c r="E10">
-        <v>38</v>
-      </c>
-      <c r="F10">
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2">
+        <v>204</v>
+      </c>
+      <c r="D13" s="2">
+        <v>345</v>
+      </c>
+      <c r="E13" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="F13" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>26</v>
-      </c>
-      <c r="C11">
-        <v>180.5</v>
-      </c>
-      <c r="D11">
-        <v>743.3</v>
-      </c>
-      <c r="E11">
-        <v>8.5</v>
-      </c>
-      <c r="F11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="G13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
+      <c r="B14" s="2">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>274</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>14</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>20</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2">
+        <v>80</v>
+      </c>
+      <c r="E17" s="2">
+        <v>8</v>
+      </c>
+      <c r="F17" s="2">
+        <v>40</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B18" s="2">
+        <v>26</v>
+      </c>
+      <c r="C18" s="2">
+        <v>69</v>
+      </c>
+      <c r="D18" s="2">
+        <v>212</v>
+      </c>
+      <c r="E18" s="2">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2">
+        <v>40</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B19" s="2">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>392</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B20" s="2">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2">
+        <v>274</v>
+      </c>
+      <c r="D20" s="2">
+        <v>785</v>
+      </c>
+      <c r="E20" s="2">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2">
+        <v>40</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C59D5F1-AE06-42F8-9E26-06DD86423A40}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>31</v>
       </c>
       <c r="B4">
         <v>16</v>
       </c>
       <c r="C4">
+        <f>B4/20</f>
+        <v>0.8</v>
+      </c>
+      <c r="D4">
         <v>68</v>
       </c>
-      <c r="D4">
-        <f>((B4/10)^2)*PI()*C4</f>
-        <v>546.88844913691128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <f>C4^2*PI()*D4</f>
+        <v>136.72211228422782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>16</v>
       </c>
       <c r="C5">
+        <f t="shared" ref="C5:C26" si="0">B5/20</f>
+        <v>0.8</v>
+      </c>
+      <c r="D5">
         <v>95</v>
       </c>
-      <c r="D5">
-        <f>((B5/10)^2)*PI()*C5</f>
-        <v>764.0353333530378</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <f t="shared" ref="E5:E26" si="1">C5^2*PI()*D5</f>
+        <v>191.00883333825945</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>16</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="D6">
         <v>38</v>
       </c>
-      <c r="D6">
-        <f t="shared" ref="D6:D9" si="0">((B6/10)^2)*PI()*C6</f>
-        <v>305.61413334121511</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>76.403533335303777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>17</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="D7">
         <v>65</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>590.14817997684258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>147.53704499421065</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>26</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="D8">
         <v>8.5</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>180.51591387526952</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>45.12897846881738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>26</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="D9">
         <v>35</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>743.30082183934508</v>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>185.82520545983627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="D10">
+        <v>38.5</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>204.40772600581988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="D11">
+        <v>65</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>345.10395299683876</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>274.88935718910693</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>40.212385965949352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>16.084954386379742</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>80.424771931898704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="D17">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>69.020790599367757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>212.37166338267002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>392.69908169872417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>274.88935718910693</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="D22">
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>785.39816339744834</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>785.39816339744834</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>140</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>46</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>7081.1498411913935</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>140</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>55</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>8466.5922014244916</v>
       </c>
     </row>
   </sheetData>
